--- a/src/TestOkur.WebApi/Data/Users.xlsx
+++ b/src/TestOkur.WebApi/Data/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>da2d5e78-7014-4043-8712-a7fa26fc179b</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>FUAT KAYADELEN</t>
+  </si>
+  <si>
+    <t>ESKİ LİSANS KODU :1115584959</t>
   </si>
   <si>
     <t>5176b9c8-8217-4e20-8047-6421160ea8e9</t>
@@ -71,18 +74,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,21 +115,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,6 +150,200 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4285F4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="EA4335"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="FBBC04"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="34A853"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF6D01"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="46BDC6"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="1155CC"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="1155CC"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -171,10 +390,37 @@
       <c r="K1" s="2">
         <v>90.0</v>
       </c>
+      <c r="L1" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>42987.58078271991</v>
+      </c>
+      <c r="P1" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>42833.0</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="4">
+        <v>123456.0</v>
+      </c>
+      <c r="T1" s="5">
+        <v>42983.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>35.0</v>
@@ -183,33 +429,60 @@
         <v>574.0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>5.074011191E9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="2">
         <v>5.074011191E9</v>
       </c>
       <c r="K2" s="2">
         <v>110.0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>42987.58078271991</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>42833.0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="4">
+        <v>123456.0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>42983.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>35.0</v>
@@ -218,28 +491,55 @@
         <v>172.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>5.544205163E9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>5.544205163E9</v>
       </c>
       <c r="K3" s="2">
         <v>120.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>42987.58078271991</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>42833.0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="4">
+        <v>123456.0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>42983.0</v>
       </c>
     </row>
   </sheetData>
